--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>10.56188204926044</v>
+        <v>223.6299986886187</v>
       </c>
       <c r="R2">
-        <v>95.056938443344</v>
+        <v>2012.669988197568</v>
       </c>
       <c r="S2">
-        <v>0.0001407321126003454</v>
+        <v>0.00315652739180569</v>
       </c>
       <c r="T2">
-        <v>0.0001407321126003454</v>
+        <v>0.00315652739180569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>4.847039549239111</v>
+        <v>8.989254498510222</v>
       </c>
       <c r="R3">
-        <v>43.623355943152</v>
+        <v>80.903290486592</v>
       </c>
       <c r="S3">
-        <v>6.458452314089325E-05</v>
+        <v>0.0001268829236813126</v>
       </c>
       <c r="T3">
-        <v>6.458452314089325E-05</v>
+        <v>0.0001268829236813126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>6651.185662619624</v>
+        <v>11442.33327022522</v>
       </c>
       <c r="R4">
-        <v>59860.67096357662</v>
+        <v>102980.999432027</v>
       </c>
       <c r="S4">
-        <v>0.08862392187603825</v>
+        <v>0.1615080204151237</v>
       </c>
       <c r="T4">
-        <v>0.08862392187603824</v>
+        <v>0.1615080204151236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>177.6338448030058</v>
+        <v>162.782145908592</v>
       </c>
       <c r="R5">
-        <v>1598.704603227052</v>
+        <v>1465.039313177328</v>
       </c>
       <c r="S5">
-        <v>0.002366887466822198</v>
+        <v>0.002297662681529728</v>
       </c>
       <c r="T5">
-        <v>0.002366887466822198</v>
+        <v>0.002297662681529728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>6917.223205045199</v>
+        <v>15801.90443762759</v>
       </c>
       <c r="R6">
-        <v>62255.0088454068</v>
+        <v>142217.1399386483</v>
       </c>
       <c r="S6">
-        <v>0.09216874705037134</v>
+        <v>0.2230431717236598</v>
       </c>
       <c r="T6">
-        <v>0.09216874705037133</v>
+        <v>0.2230431717236598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>8971.574730739158</v>
+        <v>4719.668825583451</v>
       </c>
       <c r="R7">
-        <v>80744.17257665242</v>
+        <v>42477.01943025105</v>
       </c>
       <c r="S7">
-        <v>0.119542015269637</v>
+        <v>0.06661791358747504</v>
       </c>
       <c r="T7">
-        <v>0.119542015269637</v>
+        <v>0.06661791358747503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>22.03465562043289</v>
+        <v>251.5636588438747</v>
       </c>
       <c r="R8">
-        <v>198.311900583896</v>
+        <v>2264.072929594872</v>
       </c>
       <c r="S8">
-        <v>0.0002936014264713106</v>
+        <v>0.003550809750838518</v>
       </c>
       <c r="T8">
-        <v>0.0002936014264713106</v>
+        <v>0.003550809750838518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>10.11210376597422</v>
@@ -1013,10 +1013,10 @@
         <v>91.00893389376799</v>
       </c>
       <c r="S9">
-        <v>0.0001347390284404008</v>
+        <v>0.0001427318906821761</v>
       </c>
       <c r="T9">
-        <v>0.0001347390284404008</v>
+        <v>0.0001427318906821761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>13875.99150036392</v>
+        <v>12871.59701313968</v>
       </c>
       <c r="R10">
-        <v>124883.9235032752</v>
+        <v>115844.3731182571</v>
       </c>
       <c r="S10">
-        <v>0.1848910628960668</v>
+        <v>0.1816820139807455</v>
       </c>
       <c r="T10">
-        <v>0.1848910628960667</v>
+        <v>0.1816820139807455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>370.5874178969576</v>
+        <v>183.115290700518</v>
       </c>
       <c r="R11">
-        <v>3335.286761072618</v>
+        <v>1648.037616304662</v>
       </c>
       <c r="S11">
-        <v>0.004937903110497031</v>
+        <v>0.002584664107428015</v>
       </c>
       <c r="T11">
-        <v>0.004937903110497031</v>
+        <v>0.002584664107428015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>14431.01053978448</v>
+        <v>17775.72293673303</v>
       </c>
       <c r="R12">
-        <v>129879.0948580604</v>
+        <v>159981.5064305973</v>
       </c>
       <c r="S12">
-        <v>0.1922864306521894</v>
+        <v>0.2509035312255811</v>
       </c>
       <c r="T12">
-        <v>0.1922864306521894</v>
+        <v>0.2509035312255811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>18716.88763828388</v>
+        <v>5309.203439867352</v>
       </c>
       <c r="R13">
-        <v>168451.988744555</v>
+        <v>47782.83095880617</v>
       </c>
       <c r="S13">
-        <v>0.2493937279694789</v>
+        <v>0.07493916820142252</v>
       </c>
       <c r="T13">
-        <v>0.2493937279694789</v>
+        <v>0.07493916820142252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.018833922976</v>
+        <v>0.1944959300053333</v>
       </c>
       <c r="R14">
-        <v>0.169505306784</v>
+        <v>1.750463370048</v>
       </c>
       <c r="S14">
-        <v>2.509531688199698E-07</v>
+        <v>2.745301320291078E-06</v>
       </c>
       <c r="T14">
-        <v>2.509531688199698E-07</v>
+        <v>2.745301320291078E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.008643229407999999</v>
+        <v>0.007818152412444443</v>
       </c>
       <c r="R15">
-        <v>0.077789064672</v>
+        <v>0.07036337171199999</v>
       </c>
       <c r="S15">
-        <v>1.151669682168479E-07</v>
+        <v>1.103528703121554E-07</v>
       </c>
       <c r="T15">
-        <v>1.151669682168478E-07</v>
+        <v>1.103528703121554E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>11.860378470864</v>
+        <v>9.951648991073776</v>
       </c>
       <c r="R16">
-        <v>106.743406237776</v>
+        <v>89.56484091966399</v>
       </c>
       <c r="S16">
-        <v>0.0001580339669255463</v>
+        <v>0.000140467078737941</v>
       </c>
       <c r="T16">
-        <v>0.0001580339669255462</v>
+        <v>0.000140467078737941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.316756250008</v>
+        <v>0.141575213712</v>
       </c>
       <c r="R17">
-        <v>2.850806250072</v>
+        <v>1.274176923408</v>
       </c>
       <c r="S17">
-        <v>4.220628107289877E-06</v>
+        <v>1.998327785642544E-06</v>
       </c>
       <c r="T17">
-        <v>4.220628107289877E-06</v>
+        <v>1.998327785642544E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>12.334775984432</v>
+        <v>13.74326395150222</v>
       </c>
       <c r="R18">
-        <v>111.012983859888</v>
+        <v>123.68937556352</v>
       </c>
       <c r="S18">
-        <v>0.0001643550907541778</v>
+        <v>0.0001939855536829652</v>
       </c>
       <c r="T18">
-        <v>0.0001643550907541777</v>
+        <v>0.0001939855536829652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>15.998090744064</v>
+        <v>4.104799816357333</v>
       </c>
       <c r="R19">
-        <v>143.982816696576</v>
+        <v>36.943198347216</v>
       </c>
       <c r="S19">
-        <v>0.0002131670376059358</v>
+        <v>5.793906512628492E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002131670376059358</v>
+        <v>5.793906512628492E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>2.134494653508888</v>
+        <v>13.34481803334667</v>
       </c>
       <c r="R20">
-        <v>19.21045188158</v>
+        <v>120.10336230012</v>
       </c>
       <c r="S20">
-        <v>2.844113771782578E-05</v>
+        <v>0.0001883615074361001</v>
       </c>
       <c r="T20">
-        <v>2.844113771782578E-05</v>
+        <v>0.0001883615074361001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.9795583736822221</v>
+        <v>0.5364216171422223</v>
       </c>
       <c r="R21">
-        <v>8.81602536314</v>
+        <v>4.82779455428</v>
       </c>
       <c r="S21">
-        <v>1.305215478649571E-05</v>
+        <v>7.571567043756834E-06</v>
       </c>
       <c r="T21">
-        <v>1.30521547864957E-05</v>
+        <v>7.571567043756834E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>1344.16576232743</v>
+        <v>682.8057785783789</v>
       </c>
       <c r="R22">
-        <v>12097.49186094687</v>
+        <v>6145.252007205409</v>
       </c>
       <c r="S22">
-        <v>0.01791037681874499</v>
+        <v>0.009637772910632112</v>
       </c>
       <c r="T22">
-        <v>0.01791037681874499</v>
+        <v>0.009637772910632112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>35.89876219464055</v>
+        <v>9.713804628029999</v>
       </c>
       <c r="R23">
-        <v>323.088859751765</v>
+        <v>87.42424165226998</v>
       </c>
       <c r="S23">
-        <v>0.0004783341283140852</v>
+        <v>0.0001371099162314044</v>
       </c>
       <c r="T23">
-        <v>0.0004783341283140852</v>
+        <v>0.0001371099162314044</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>1397.930395305867</v>
+        <v>942.9572979343112</v>
       </c>
       <c r="R24">
-        <v>12581.37355775281</v>
+        <v>8486.615681408801</v>
       </c>
       <c r="S24">
-        <v>0.01862676527555109</v>
+        <v>0.01330979992705342</v>
       </c>
       <c r="T24">
-        <v>0.01862676527555109</v>
+        <v>0.01330979992705342</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>1813.102835934347</v>
+        <v>281.6398605929767</v>
       </c>
       <c r="R25">
-        <v>16317.92552340912</v>
+        <v>2534.75874533679</v>
       </c>
       <c r="S25">
-        <v>0.02415874285214016</v>
+        <v>0.003975333988280846</v>
       </c>
       <c r="T25">
-        <v>0.02415874285214015</v>
+        <v>0.003975333988280846</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>0.07482120699066666</v>
+        <v>0.8501151635013332</v>
       </c>
       <c r="R26">
-        <v>0.673390862916</v>
+        <v>7.651036471512</v>
       </c>
       <c r="S26">
-        <v>9.96957405696607E-07</v>
+        <v>1.199933736760291E-05</v>
       </c>
       <c r="T26">
-        <v>9.969574056966072E-07</v>
+        <v>1.199933736760291E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.03433681115866666</v>
+        <v>0.03417207710311111</v>
       </c>
       <c r="R27">
-        <v>0.309031300428</v>
+        <v>0.307548693928</v>
       </c>
       <c r="S27">
-        <v>4.575218651165148E-07</v>
+        <v>4.823373341832242E-07</v>
       </c>
       <c r="T27">
-        <v>4.575218651165149E-07</v>
+        <v>4.823373341832242E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>47.11752478158601</v>
+        <v>43.49729944951844</v>
       </c>
       <c r="R28">
-        <v>424.0577230342741</v>
+        <v>391.4756950456659</v>
       </c>
       <c r="S28">
-        <v>0.0006278188652443849</v>
+        <v>0.0006139624289546052</v>
       </c>
       <c r="T28">
-        <v>0.0006278188652443849</v>
+        <v>0.0006139624289546052</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>1.258372192433667</v>
+        <v>0.6188059356779998</v>
       </c>
       <c r="R29">
-        <v>11.325349731903</v>
+        <v>5.569253421101998</v>
       </c>
       <c r="S29">
-        <v>1.676721783605969E-05</v>
+        <v>8.734418001313372E-06</v>
       </c>
       <c r="T29">
-        <v>1.676721783605969E-05</v>
+        <v>8.734418001313372E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>49.00215575325133</v>
+        <v>60.06993092787555</v>
       </c>
       <c r="R30">
-        <v>441.019401779262</v>
+        <v>540.62937835088</v>
       </c>
       <c r="S30">
-        <v>0.0006529306868759353</v>
+        <v>0.0008478843782570082</v>
       </c>
       <c r="T30">
-        <v>0.0006529306868759353</v>
+        <v>0.0008478843782570081</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>63.55534428713601</v>
+        <v>17.94151973733933</v>
       </c>
       <c r="R31">
-        <v>571.9980985842241</v>
+        <v>161.473677636054</v>
       </c>
       <c r="S31">
-        <v>0.0008468450818570954</v>
+        <v>0.0002532437456228286</v>
       </c>
       <c r="T31">
-        <v>0.0008468450818570955</v>
+        <v>0.0002532437456228286</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N32">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P32">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q32">
-        <v>0.04372411906444444</v>
+        <v>0.02810367169466666</v>
       </c>
       <c r="R32">
-        <v>0.39351707158</v>
+        <v>0.252933045252</v>
       </c>
       <c r="S32">
-        <v>5.826033294851247E-07</v>
+        <v>3.966820642790816E-07</v>
       </c>
       <c r="T32">
-        <v>5.826033294851246E-07</v>
+        <v>3.966820642790816E-07</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.133268</v>
       </c>
       <c r="O33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P33">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q33">
-        <v>0.02006579257111111</v>
+        <v>0.001129683220888889</v>
       </c>
       <c r="R33">
-        <v>0.18059213314</v>
+        <v>0.010167148988</v>
       </c>
       <c r="S33">
-        <v>2.67367252006996E-07</v>
+        <v>1.594542794665113E-08</v>
       </c>
       <c r="T33">
-        <v>2.673672520069959E-07</v>
+        <v>1.594542794665113E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N34">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O34">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P34">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q34">
-        <v>27.53460344243</v>
+        <v>1.437962614734555</v>
       </c>
       <c r="R34">
-        <v>247.81143098187</v>
+        <v>12.941663532611</v>
       </c>
       <c r="S34">
-        <v>0.00036688564537958</v>
+        <v>2.029677775083384E-05</v>
       </c>
       <c r="T34">
-        <v>0.00036688564537958</v>
+        <v>2.029677775083384E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N35">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P35">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q35">
-        <v>0.7353692593627777</v>
+        <v>0.020456897613</v>
       </c>
       <c r="R35">
-        <v>6.618323334265001</v>
+        <v>0.184112078517</v>
       </c>
       <c r="S35">
-        <v>9.798449644561368E-06</v>
+        <v>2.887481914119658E-07</v>
       </c>
       <c r="T35">
-        <v>9.798449644561368E-06</v>
+        <v>2.887481914119658E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N36">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P36">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q36">
-        <v>28.63594666197888</v>
+        <v>1.985831673164445</v>
       </c>
       <c r="R36">
-        <v>257.72351995781</v>
+        <v>17.87248505848</v>
       </c>
       <c r="S36">
-        <v>0.0003815605259796747</v>
+        <v>2.802992491444267E-05</v>
       </c>
       <c r="T36">
-        <v>0.0003815605259796747</v>
+        <v>2.802992491444266E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N37">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O37">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P37">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q37">
-        <v>37.14055884101334</v>
+        <v>0.5931226756676666</v>
       </c>
       <c r="R37">
-        <v>334.26502956912</v>
+        <v>5.338104081009</v>
       </c>
       <c r="S37">
-        <v>0.0004948804847919351</v>
+        <v>8.371899939296271E-06</v>
       </c>
       <c r="T37">
-        <v>0.000494880484791935</v>
+        <v>8.371899939296271E-06</v>
       </c>
     </row>
   </sheetData>
